--- a/Temp-1.xlsx
+++ b/Temp-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tal\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC63AEB-B485-46EB-A264-53AE96A9ECC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5F9BBD-FA21-4E59-B9B4-E8EF4248B13E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="1000" firstSheet="14" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="1000" firstSheet="14" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -561,7 +561,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1944" uniqueCount="1017">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1945" uniqueCount="1018">
   <si>
     <t>Region</t>
   </si>
@@ -9423,6 +9423,9 @@
   </si>
   <si>
     <t>test.sh</t>
+  </si>
+  <si>
+    <t>t.sh</t>
   </si>
 </sst>
 </file>
@@ -10288,6 +10291,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="6" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -10366,9 +10372,6 @@
     </xf>
     <xf numFmtId="0" fontId="35" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="6" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -16199,12 +16202,12 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="167.140625" customWidth="1"/>
+    <col min="1" max="1" width="167.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="1" spans="1:1" ht="15" thickBot="1"/>
     <row r="2" spans="1:1" ht="59.25" customHeight="1" thickBot="1">
       <c r="A2" s="82" t="s">
         <v>955</v>
@@ -16224,18 +16227,18 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="32.140625" customWidth="1"/>
-    <col min="2" max="2" width="50.42578125" customWidth="1"/>
-    <col min="3" max="10" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="32.1796875" customWidth="1"/>
+    <col min="2" max="2" width="50.453125" customWidth="1"/>
+    <col min="3" max="10" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="40" customFormat="1" ht="92.25" customHeight="1">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="112" t="s">
         <v>931</v>
       </c>
-      <c r="B1" s="119"/>
+      <c r="B1" s="120"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="10" t="s">
@@ -16269,7 +16272,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="28.7" customHeight="1">
+    <row r="6" spans="1:9" ht="28.75" customHeight="1">
       <c r="A6" s="39" t="s">
         <v>4</v>
       </c>
@@ -16332,29 +16335,29 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" customWidth="1"/>
-    <col min="6" max="6" width="31.42578125" customWidth="1"/>
-    <col min="7" max="7" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" customWidth="1"/>
+    <col min="6" max="6" width="31.453125" customWidth="1"/>
+    <col min="7" max="7" width="27.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="103.7" customHeight="1">
-      <c r="A1" s="111" t="s">
+    <row r="1" spans="1:9" ht="103.75" customHeight="1">
+      <c r="A1" s="112" t="s">
         <v>932</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
     </row>
     <row r="2" spans="1:9" s="40" customFormat="1" ht="43.5" customHeight="1">
       <c r="A2" s="27" t="s">
@@ -16402,7 +16405,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="28.7" customHeight="1">
+    <row r="4" spans="1:9" ht="28.75" customHeight="1">
       <c r="A4" s="39" t="s">
         <v>4</v>
       </c>
@@ -16415,7 +16418,7 @@
       <c r="H4" s="33"/>
       <c r="I4" s="38"/>
     </row>
-    <row r="5" spans="1:9" ht="28.7" customHeight="1">
+    <row r="5" spans="1:9" ht="28.75" customHeight="1">
       <c r="A5" s="53" t="s">
         <v>5</v>
       </c>
@@ -16441,7 +16444,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="28.7" customHeight="1">
+    <row r="6" spans="1:9" ht="28.75" customHeight="1">
       <c r="A6" s="53" t="s">
         <v>5</v>
       </c>
@@ -16463,7 +16466,7 @@
       <c r="G6" s="53"/>
       <c r="H6" s="53"/>
     </row>
-    <row r="7" spans="1:9" ht="28.7" customHeight="1">
+    <row r="7" spans="1:9" ht="28.75" customHeight="1">
       <c r="A7" s="53" t="s">
         <v>5</v>
       </c>
@@ -16542,52 +16545,52 @@
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="18.42578125" customWidth="1"/>
-    <col min="11" max="12" width="11.42578125" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" customWidth="1"/>
-    <col min="17" max="17" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" customWidth="1"/>
+    <col min="4" max="4" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.1796875" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" customWidth="1"/>
+    <col min="8" max="8" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="18.453125" customWidth="1"/>
+    <col min="11" max="12" width="11.453125" customWidth="1"/>
+    <col min="13" max="13" width="14.453125" customWidth="1"/>
+    <col min="14" max="14" width="15.81640625" customWidth="1"/>
+    <col min="15" max="15" width="13.453125" customWidth="1"/>
+    <col min="16" max="16" width="11.81640625" customWidth="1"/>
+    <col min="17" max="17" width="14.1796875" customWidth="1"/>
     <col min="18" max="18" width="10" customWidth="1"/>
-    <col min="19" max="19" width="24.140625" customWidth="1"/>
+    <col min="19" max="19" width="24.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="203.25" customHeight="1">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="115" t="s">
         <v>933</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="121"/>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="121"/>
-      <c r="S1" s="121"/>
-      <c r="T1" s="121"/>
-    </row>
-    <row r="2" spans="1:20" s="40" customFormat="1" ht="59.45" customHeight="1">
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="122"/>
+      <c r="O1" s="122"/>
+      <c r="P1" s="122"/>
+      <c r="Q1" s="122"/>
+      <c r="R1" s="122"/>
+      <c r="S1" s="122"/>
+      <c r="T1" s="122"/>
+    </row>
+    <row r="2" spans="1:20" s="40" customFormat="1" ht="59.5" customHeight="1">
       <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
@@ -16773,7 +16776,7 @@
       <c r="S5" s="33"/>
       <c r="T5" s="33"/>
     </row>
-    <row r="6" spans="1:20" ht="30">
+    <row r="6" spans="1:20" ht="29">
       <c r="A6" s="53" t="s">
         <v>5</v>
       </c>
@@ -16905,7 +16908,7 @@
       <c r="S8" s="53"/>
       <c r="T8" s="53"/>
     </row>
-    <row r="9" spans="1:20" ht="31.7" customHeight="1">
+    <row r="9" spans="1:20" ht="31.75" customHeight="1">
       <c r="A9" s="53" t="s">
         <v>5</v>
       </c>
@@ -17009,7 +17012,7 @@
       <c r="S10" s="53"/>
       <c r="T10" s="53"/>
     </row>
-    <row r="11" spans="1:20" ht="28.7" customHeight="1">
+    <row r="11" spans="1:20" ht="28.75" customHeight="1">
       <c r="A11" s="53" t="s">
         <v>5</v>
       </c>
@@ -17267,34 +17270,34 @@
       <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.42578125" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" customWidth="1"/>
+    <col min="1" max="1" width="8.453125" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.453125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.453125" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="63" customHeight="1">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="112" t="s">
         <v>934</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
     </row>
     <row r="2" spans="1:11" ht="29.25" customHeight="1">
       <c r="A2" s="27" t="s">
@@ -17366,31 +17369,31 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.453125" customWidth="1"/>
+    <col min="4" max="4" width="25.1796875" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.85546875" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="31.81640625" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1796875" customWidth="1"/>
+    <col min="9" max="9" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="63" customHeight="1">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="112" t="s">
         <v>935</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="10" t="s">
@@ -17465,38 +17468,38 @@
       <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" customWidth="1"/>
+    <col min="4" max="4" width="33.1796875" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.1796875" customWidth="1"/>
+    <col min="17" max="17" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="60" customHeight="1">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="112" t="s">
         <v>936</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="10" t="s">
@@ -17608,52 +17611,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" customWidth="1"/>
-    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.81640625" customWidth="1"/>
+    <col min="10" max="10" width="15.81640625" customWidth="1"/>
+    <col min="11" max="11" width="12.453125" customWidth="1"/>
+    <col min="17" max="17" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="138.94999999999999" customHeight="1">
-      <c r="A1" s="111" t="s">
+    <row r="1" spans="1:20" ht="139" customHeight="1">
+      <c r="A1" s="112" t="s">
         <v>969</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
-      <c r="S1" s="111"/>
-      <c r="T1" s="111"/>
-    </row>
-    <row r="2" spans="1:20" ht="30">
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="112"/>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
@@ -17757,7 +17760,7 @@
       <c r="S3" s="32"/>
       <c r="T3" s="32"/>
     </row>
-    <row r="4" spans="1:20" ht="28.7" customHeight="1">
+    <row r="4" spans="1:20" ht="28.75" customHeight="1">
       <c r="A4" s="32" t="s">
         <v>605</v>
       </c>
@@ -17803,7 +17806,7 @@
       <c r="S4" s="32"/>
       <c r="T4" s="32"/>
     </row>
-    <row r="5" spans="1:20" ht="28.7" customHeight="1">
+    <row r="5" spans="1:20" ht="28.75" customHeight="1">
       <c r="A5" s="32" t="s">
         <v>605</v>
       </c>
@@ -17849,7 +17852,7 @@
       <c r="S5" s="32"/>
       <c r="T5" s="32"/>
     </row>
-    <row r="6" spans="1:20" ht="28.7" customHeight="1">
+    <row r="6" spans="1:20" ht="28.75" customHeight="1">
       <c r="A6" s="32" t="s">
         <v>605</v>
       </c>
@@ -17891,7 +17894,7 @@
       <c r="S6" s="32"/>
       <c r="T6" s="32"/>
     </row>
-    <row r="7" spans="1:20" ht="28.7" customHeight="1">
+    <row r="7" spans="1:20" ht="28.75" customHeight="1">
       <c r="A7" s="32" t="s">
         <v>605</v>
       </c>
@@ -17937,7 +17940,7 @@
       <c r="S7" s="32"/>
       <c r="T7" s="32"/>
     </row>
-    <row r="8" spans="1:20" ht="28.7" customHeight="1">
+    <row r="8" spans="1:20" ht="28.75" customHeight="1">
       <c r="A8" s="32" t="s">
         <v>605</v>
       </c>
@@ -18124,11 +18127,11 @@
       <c r="S12" s="53"/>
       <c r="T12" s="53"/>
     </row>
-    <row r="19" ht="30.95" customHeight="1"/>
-    <row r="21" ht="28.7" customHeight="1"/>
-    <row r="22" ht="31.7" customHeight="1"/>
-    <row r="23" ht="31.7" customHeight="1"/>
-    <row r="24" ht="31.7" customHeight="1"/>
+    <row r="19" ht="31" customHeight="1"/>
+    <row r="21" ht="28.75" customHeight="1"/>
+    <row r="22" ht="31.75" customHeight="1"/>
+    <row r="23" ht="31.75" customHeight="1"/>
+    <row r="24" ht="31.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:T1"/>
@@ -18204,31 +18207,31 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" customWidth="1"/>
+    <col min="6" max="6" width="22.81640625" customWidth="1"/>
     <col min="7" max="7" width="24" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="9" width="73.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.453125" customWidth="1"/>
+    <col min="9" max="9" width="73.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="174.95" customHeight="1">
-      <c r="A1" s="111" t="s">
+    <row r="1" spans="1:9" ht="175" customHeight="1">
+      <c r="A1" s="112" t="s">
         <v>914</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="7" t="s">
@@ -18310,7 +18313,7 @@
       <c r="H5" s="32"/>
       <c r="I5" s="30"/>
     </row>
-    <row r="6" spans="1:9" ht="57.95" customHeight="1">
+    <row r="6" spans="1:9" ht="58" customHeight="1">
       <c r="A6" s="32"/>
       <c r="B6" s="32"/>
       <c r="C6" s="32"/>
@@ -18538,36 +18541,36 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="57.140625" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="57.1796875" customWidth="1"/>
+    <col min="11" max="11" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="191.25" customHeight="1">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="124" t="s">
         <v>915</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-    </row>
-    <row r="2" spans="1:11" ht="30">
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+    </row>
+    <row r="2" spans="1:11" ht="29">
       <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
@@ -18602,7 +18605,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="31" customFormat="1" ht="45">
+    <row r="3" spans="1:11" s="31" customFormat="1" ht="29">
       <c r="A3" s="103" t="s">
         <v>605</v>
       </c>
@@ -18631,7 +18634,7 @@
       <c r="J3" s="103"/>
       <c r="K3" s="103"/>
     </row>
-    <row r="4" spans="1:11" ht="75">
+    <row r="4" spans="1:11" ht="58">
       <c r="A4" s="33" t="s">
         <v>605</v>
       </c>
@@ -18715,28 +18718,28 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="89.25" customHeight="1">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="112" t="s">
         <v>916</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-    </row>
-    <row r="2" spans="1:11" s="40" customFormat="1" ht="28.7" customHeight="1">
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+    </row>
+    <row r="2" spans="1:11" s="40" customFormat="1" ht="28.75" customHeight="1">
       <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
@@ -18774,7 +18777,7 @@
       <c r="J3" s="103"/>
       <c r="K3" s="103"/>
     </row>
-    <row r="4" spans="1:11" ht="28.7" customHeight="1">
+    <row r="4" spans="1:11" ht="28.75" customHeight="1">
       <c r="A4" s="33" t="s">
         <v>5</v>
       </c>
@@ -18795,7 +18798,7 @@
       </c>
       <c r="G4" s="33"/>
     </row>
-    <row r="5" spans="1:11" ht="28.7" customHeight="1">
+    <row r="5" spans="1:11" ht="28.75" customHeight="1">
       <c r="A5" s="33" t="s">
         <v>5</v>
       </c>
@@ -18872,23 +18875,23 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" customWidth="1"/>
+    <col min="3" max="3" width="40.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.453125" customWidth="1"/>
+    <col min="5" max="5" width="25.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="40" customFormat="1" ht="108" customHeight="1">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="112" t="s">
         <v>929</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="27" t="s">
@@ -18957,60 +18960,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+    <sheetView tabSelected="1" topLeftCell="N2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" customWidth="1"/>
-    <col min="11" max="12" width="20.85546875" customWidth="1"/>
-    <col min="13" max="13" width="21.85546875" customWidth="1"/>
-    <col min="14" max="15" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.1796875" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" customWidth="1"/>
+    <col min="11" max="12" width="20.81640625" customWidth="1"/>
+    <col min="13" max="13" width="21.81640625" customWidth="1"/>
+    <col min="14" max="15" width="15.453125" customWidth="1"/>
     <col min="16" max="16" width="19" customWidth="1"/>
-    <col min="17" max="17" width="8.42578125" customWidth="1"/>
-    <col min="18" max="18" width="12.140625" customWidth="1"/>
+    <col min="17" max="17" width="8.453125" customWidth="1"/>
+    <col min="18" max="18" width="12.1796875" customWidth="1"/>
     <col min="19" max="19" width="16" customWidth="1"/>
     <col min="20" max="20" width="12" customWidth="1"/>
-    <col min="21" max="21" width="22.85546875" customWidth="1"/>
-    <col min="22" max="33" width="8.85546875" customWidth="1"/>
+    <col min="21" max="21" width="22.81640625" customWidth="1"/>
+    <col min="22" max="33" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="194.25" customHeight="1">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="126" t="s">
         <v>947</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="114" t="s">
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="115" t="s">
         <v>917</v>
       </c>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
-      <c r="Q1" s="115"/>
-      <c r="R1" s="115"/>
-      <c r="S1" s="115"/>
-      <c r="T1" s="116"/>
-      <c r="U1" s="140"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="116"/>
+      <c r="S1" s="116"/>
+      <c r="T1" s="117"/>
+      <c r="U1" s="111"/>
     </row>
     <row r="2" spans="1:21" s="40" customFormat="1" ht="52.5" customHeight="1">
       <c r="A2" s="27" t="s">
@@ -19077,7 +19080,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="30">
+    <row r="3" spans="1:21" ht="29">
       <c r="A3" s="33" t="s">
         <v>605</v>
       </c>
@@ -19126,7 +19129,9 @@
         <v>979</v>
       </c>
       <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
+      <c r="S3" s="33" t="s">
+        <v>1017</v>
+      </c>
       <c r="T3" s="32" t="s">
         <v>1013</v>
       </c>
@@ -19134,7 +19139,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="30">
+    <row r="4" spans="1:21" ht="29">
       <c r="A4" s="33" t="s">
         <v>605</v>
       </c>
@@ -19204,7 +19209,7 @@
       </c>
       <c r="U6" s="110"/>
     </row>
-    <row r="7" spans="1:21" ht="45">
+    <row r="7" spans="1:21" ht="29">
       <c r="A7" s="53" t="s">
         <v>5</v>
       </c>
@@ -19255,7 +19260,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="30">
+    <row r="8" spans="1:21" ht="15.5">
       <c r="A8" s="53" t="s">
         <v>5</v>
       </c>
@@ -19304,7 +19309,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15.75">
+    <row r="9" spans="1:21" ht="15.5">
       <c r="A9" s="53" t="s">
         <v>5</v>
       </c>
@@ -19349,7 +19354,7 @@
       <c r="T9" s="53"/>
       <c r="U9" s="53"/>
     </row>
-    <row r="10" spans="1:21" ht="15.75">
+    <row r="10" spans="1:21" ht="15.5">
       <c r="A10" s="53" t="s">
         <v>5</v>
       </c>
@@ -19464,38 +19469,38 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="9" width="17.42578125" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" customWidth="1"/>
+    <col min="3" max="4" width="17.1796875" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" customWidth="1"/>
+    <col min="6" max="6" width="15.81640625" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" customWidth="1"/>
+    <col min="8" max="9" width="17.453125" customWidth="1"/>
+    <col min="10" max="10" width="17.1796875" customWidth="1"/>
+    <col min="12" max="12" width="18.453125" customWidth="1"/>
+    <col min="13" max="13" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="140.25" customHeight="1">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="115" t="s">
         <v>919</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="116"/>
-    </row>
-    <row r="2" spans="1:13" s="40" customFormat="1" ht="45">
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="117"/>
+    </row>
+    <row r="2" spans="1:13" s="40" customFormat="1" ht="43.5">
       <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
@@ -19536,7 +19541,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="30">
+    <row r="3" spans="1:13" ht="29">
       <c r="A3" s="53" t="s">
         <v>605</v>
       </c>
@@ -19631,7 +19636,7 @@
       <c r="L5" s="33"/>
       <c r="M5" s="33"/>
     </row>
-    <row r="6" spans="1:13" ht="60">
+    <row r="6" spans="1:13" ht="58">
       <c r="A6" s="53" t="s">
         <v>5</v>
       </c>
@@ -19761,50 +19766,50 @@
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" customWidth="1"/>
+    <col min="5" max="5" width="20.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.453125" customWidth="1"/>
     <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" customWidth="1"/>
-    <col min="14" max="14" width="17.140625" customWidth="1"/>
-    <col min="15" max="15" width="15.42578125" customWidth="1"/>
-    <col min="16" max="16" width="18.85546875" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.1796875" customWidth="1"/>
+    <col min="12" max="12" width="7.81640625" customWidth="1"/>
+    <col min="13" max="13" width="8.453125" customWidth="1"/>
+    <col min="14" max="14" width="17.1796875" customWidth="1"/>
+    <col min="15" max="15" width="15.453125" customWidth="1"/>
+    <col min="16" max="16" width="18.81640625" customWidth="1"/>
+    <col min="17" max="17" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="114.95" customHeight="1">
-      <c r="A1" s="128" t="s">
+    <row r="1" spans="1:17" ht="115" customHeight="1">
+      <c r="A1" s="129" t="s">
         <v>937</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="131" t="s">
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="132" t="s">
         <v>425</v>
       </c>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="131"/>
-      <c r="P1" s="131"/>
-      <c r="Q1" s="131"/>
-    </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" ht="45">
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="132"/>
+    </row>
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="43.5">
       <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
@@ -19880,7 +19885,7 @@
       <c r="P3" s="33"/>
       <c r="Q3" s="33"/>
     </row>
-    <row r="4" spans="1:17" ht="75">
+    <row r="4" spans="1:17" ht="58">
       <c r="A4" s="53" t="s">
         <v>5</v>
       </c>
@@ -19969,7 +19974,7 @@
       <c r="P6" s="53"/>
       <c r="Q6" s="53"/>
     </row>
-    <row r="7" spans="1:17" ht="45">
+    <row r="7" spans="1:17" ht="29">
       <c r="A7" s="53" t="s">
         <v>5</v>
       </c>
@@ -20002,7 +20007,7 @@
       <c r="P7" s="53"/>
       <c r="Q7" s="53"/>
     </row>
-    <row r="8" spans="1:17" ht="45">
+    <row r="8" spans="1:17" ht="29">
       <c r="A8" s="53" t="s">
         <v>5</v>
       </c>
@@ -20041,7 +20046,7 @@
       </c>
       <c r="Q8" s="53"/>
     </row>
-    <row r="9" spans="1:17" ht="45">
+    <row r="9" spans="1:17" ht="29">
       <c r="A9" s="53" t="s">
         <v>5</v>
       </c>
@@ -20078,7 +20083,7 @@
       <c r="P9" s="53"/>
       <c r="Q9" s="53"/>
     </row>
-    <row r="10" spans="1:17" ht="45">
+    <row r="10" spans="1:17" ht="29">
       <c r="A10" s="53" t="s">
         <v>5</v>
       </c>
@@ -20162,77 +20167,77 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="6.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" customWidth="1"/>
+    <col min="6" max="6" width="15.1796875" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" customWidth="1"/>
+    <col min="8" max="8" width="17.1796875" customWidth="1"/>
+    <col min="9" max="9" width="20.453125" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" customWidth="1"/>
+    <col min="11" max="11" width="13.1796875" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="13" width="22.140625" customWidth="1"/>
-    <col min="14" max="14" width="18.85546875" customWidth="1"/>
-    <col min="15" max="15" width="18.42578125" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" customWidth="1"/>
-    <col min="17" max="17" width="14.140625" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" customWidth="1"/>
-    <col min="19" max="19" width="13.85546875" customWidth="1"/>
-    <col min="20" max="20" width="12.140625" customWidth="1"/>
-    <col min="21" max="21" width="16.140625" customWidth="1"/>
-    <col min="22" max="22" width="10.42578125" customWidth="1"/>
-    <col min="23" max="23" width="10.85546875" customWidth="1"/>
-    <col min="24" max="24" width="9.140625" customWidth="1"/>
-    <col min="25" max="25" width="16.85546875" customWidth="1"/>
-    <col min="26" max="26" width="9.42578125" customWidth="1"/>
-    <col min="27" max="27" width="10.140625" customWidth="1"/>
-    <col min="28" max="28" width="10.42578125" customWidth="1"/>
+    <col min="13" max="13" width="22.1796875" customWidth="1"/>
+    <col min="14" max="14" width="18.81640625" customWidth="1"/>
+    <col min="15" max="15" width="18.453125" customWidth="1"/>
+    <col min="16" max="16" width="14.453125" customWidth="1"/>
+    <col min="17" max="17" width="14.1796875" customWidth="1"/>
+    <col min="18" max="18" width="11.1796875" customWidth="1"/>
+    <col min="19" max="19" width="13.81640625" customWidth="1"/>
+    <col min="20" max="20" width="12.1796875" customWidth="1"/>
+    <col min="21" max="21" width="16.1796875" customWidth="1"/>
+    <col min="22" max="22" width="10.453125" customWidth="1"/>
+    <col min="23" max="23" width="10.81640625" customWidth="1"/>
+    <col min="24" max="24" width="9.1796875" customWidth="1"/>
+    <col min="25" max="25" width="16.81640625" customWidth="1"/>
+    <col min="26" max="26" width="9.453125" customWidth="1"/>
+    <col min="27" max="27" width="10.1796875" customWidth="1"/>
+    <col min="28" max="28" width="10.453125" customWidth="1"/>
     <col min="29" max="29" width="11" customWidth="1"/>
-    <col min="30" max="30" width="12.42578125" customWidth="1"/>
+    <col min="30" max="30" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="105.95" customHeight="1">
-      <c r="A1" s="114" t="s">
+    <row r="1" spans="1:30" ht="106" customHeight="1">
+      <c r="A1" s="115" t="s">
         <v>920</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="125" t="s">
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="126" t="s">
         <v>938</v>
       </c>
-      <c r="P1" s="126"/>
-      <c r="Q1" s="126"/>
-      <c r="R1" s="126"/>
-      <c r="S1" s="126"/>
-      <c r="T1" s="126"/>
-      <c r="U1" s="126"/>
-      <c r="V1" s="126"/>
-      <c r="W1" s="126"/>
-      <c r="X1" s="126"/>
-      <c r="Y1" s="126"/>
-      <c r="Z1" s="126"/>
-      <c r="AA1" s="126"/>
-      <c r="AB1" s="126"/>
-      <c r="AC1" s="126"/>
-      <c r="AD1" s="127"/>
-    </row>
-    <row r="2" spans="1:30" s="1" customFormat="1" ht="30.95" customHeight="1">
+      <c r="P1" s="127"/>
+      <c r="Q1" s="127"/>
+      <c r="R1" s="127"/>
+      <c r="S1" s="127"/>
+      <c r="T1" s="127"/>
+      <c r="U1" s="127"/>
+      <c r="V1" s="127"/>
+      <c r="W1" s="127"/>
+      <c r="X1" s="127"/>
+      <c r="Y1" s="127"/>
+      <c r="Z1" s="127"/>
+      <c r="AA1" s="127"/>
+      <c r="AB1" s="127"/>
+      <c r="AC1" s="127"/>
+      <c r="AD1" s="128"/>
+    </row>
+    <row r="2" spans="1:30" s="1" customFormat="1" ht="31" customHeight="1">
       <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
@@ -20358,7 +20363,7 @@
       <c r="AC3" s="33"/>
       <c r="AD3" s="33"/>
     </row>
-    <row r="4" spans="1:30" ht="15.95" customHeight="1">
+    <row r="4" spans="1:30" ht="16" customHeight="1">
       <c r="A4" s="54" t="s">
         <v>315</v>
       </c>
@@ -20438,7 +20443,7 @@
       <c r="AC4" s="98"/>
       <c r="AD4" s="98"/>
     </row>
-    <row r="5" spans="1:30" ht="12.95" customHeight="1">
+    <row r="5" spans="1:30" ht="13" customHeight="1">
       <c r="A5" s="54" t="s">
         <v>315</v>
       </c>
@@ -20640,46 +20645,46 @@
       <selection sqref="A1:S1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="6" width="19.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" customWidth="1"/>
+    <col min="5" max="6" width="19.1796875" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" customWidth="1"/>
+    <col min="10" max="10" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.42578125" customWidth="1"/>
-    <col min="16" max="16" width="28.140625" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" customWidth="1"/>
+    <col min="12" max="12" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.453125" customWidth="1"/>
+    <col min="16" max="16" width="28.1796875" customWidth="1"/>
+    <col min="17" max="17" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="122.45" customHeight="1">
-      <c r="A1" s="111" t="s">
+    <row r="1" spans="1:19" ht="122.5" customHeight="1">
+      <c r="A1" s="112" t="s">
         <v>921</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
-      <c r="S1" s="111"/>
-    </row>
-    <row r="2" spans="1:19" ht="42.95" customHeight="1">
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+    </row>
+    <row r="2" spans="1:19" ht="43" customHeight="1">
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
@@ -20761,7 +20766,7 @@
       <c r="R3" s="33"/>
       <c r="S3" s="33"/>
     </row>
-    <row r="4" spans="1:19" ht="65.45" customHeight="1">
+    <row r="4" spans="1:19" ht="65.5" customHeight="1">
       <c r="A4" s="53" t="s">
         <v>5</v>
       </c>
@@ -20938,47 +20943,47 @@
       <selection sqref="A1:V1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.1796875" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="6" width="10.85546875" customWidth="1"/>
+    <col min="4" max="6" width="10.81640625" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" customWidth="1"/>
-    <col min="11" max="13" width="14.42578125" customWidth="1"/>
-    <col min="15" max="15" width="23.42578125" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" customWidth="1"/>
-    <col min="22" max="22" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18.81640625" customWidth="1"/>
+    <col min="9" max="9" width="16.1796875" customWidth="1"/>
+    <col min="10" max="10" width="11.81640625" customWidth="1"/>
+    <col min="11" max="13" width="14.453125" customWidth="1"/>
+    <col min="15" max="15" width="23.453125" customWidth="1"/>
+    <col min="17" max="17" width="12.453125" customWidth="1"/>
+    <col min="18" max="18" width="14.81640625" customWidth="1"/>
+    <col min="22" max="22" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="119.25" customHeight="1">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="115" t="s">
         <v>697</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
-      <c r="Q1" s="115"/>
-      <c r="R1" s="115"/>
-      <c r="S1" s="115"/>
-      <c r="T1" s="115"/>
-      <c r="U1" s="115"/>
-      <c r="V1" s="116"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="116"/>
+      <c r="S1" s="116"/>
+      <c r="T1" s="116"/>
+      <c r="U1" s="116"/>
+      <c r="V1" s="117"/>
     </row>
     <row r="2" spans="1:22" ht="58.5" customHeight="1">
       <c r="A2" s="34" t="s">
@@ -21182,7 +21187,7 @@
       <c r="U5" s="53"/>
       <c r="V5" s="53"/>
     </row>
-    <row r="6" spans="1:22" ht="28.7" customHeight="1">
+    <row r="6" spans="1:22" ht="28.75" customHeight="1">
       <c r="A6" s="53" t="s">
         <v>5</v>
       </c>
@@ -21292,39 +21297,39 @@
       <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
-    <col min="8" max="9" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" customWidth="1"/>
+    <col min="8" max="9" width="12.453125" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" customWidth="1"/>
+    <col min="13" max="13" width="10.1796875" customWidth="1"/>
+    <col min="17" max="17" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="123.95" customHeight="1">
-      <c r="A1" s="111" t="s">
+    <row r="1" spans="1:17" ht="124" customHeight="1">
+      <c r="A1" s="112" t="s">
         <v>696</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
     </row>
     <row r="2" spans="1:17" ht="46.5" customHeight="1">
       <c r="A2" s="11" t="s">
@@ -21547,49 +21552,49 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="8.85546875" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" customWidth="1"/>
-    <col min="14" max="16" width="13.85546875" customWidth="1"/>
-    <col min="17" max="17" width="21.140625" customWidth="1"/>
-    <col min="18" max="18" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" customWidth="1"/>
+    <col min="4" max="4" width="27.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" customWidth="1"/>
+    <col min="6" max="6" width="17.453125" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" customWidth="1"/>
+    <col min="8" max="8" width="19.1796875" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" customWidth="1"/>
+    <col min="11" max="11" width="13.1796875" customWidth="1"/>
+    <col min="13" max="13" width="15.1796875" customWidth="1"/>
+    <col min="14" max="16" width="13.81640625" customWidth="1"/>
+    <col min="17" max="17" width="21.1796875" customWidth="1"/>
+    <col min="18" max="18" width="17.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="115.7" customHeight="1">
-      <c r="A1" s="114" t="s">
+    <row r="1" spans="1:19" ht="115.75" customHeight="1">
+      <c r="A1" s="115" t="s">
         <v>419</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="117" t="s">
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="118" t="s">
         <v>430</v>
       </c>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="133"/>
-    </row>
-    <row r="2" spans="1:19" ht="58.7" customHeight="1">
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="133"/>
+      <c r="P1" s="133"/>
+      <c r="Q1" s="133"/>
+      <c r="R1" s="133"/>
+      <c r="S1" s="134"/>
+    </row>
+    <row r="2" spans="1:19" ht="58.75" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -22273,25 +22278,25 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="6" max="6" width="28.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" customWidth="1"/>
+    <col min="3" max="3" width="26.1796875" customWidth="1"/>
+    <col min="4" max="4" width="20.1796875" customWidth="1"/>
+    <col min="6" max="6" width="28.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="40" customFormat="1" ht="44.45" customHeight="1">
-      <c r="A1" s="134" t="s">
+    <row r="1" spans="1:6" s="40" customFormat="1" ht="44.5" customHeight="1">
+      <c r="A1" s="135" t="s">
         <v>420</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="136"/>
-    </row>
-    <row r="2" spans="1:6" ht="14.45" customHeight="1">
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="137"/>
+    </row>
+    <row r="2" spans="1:6" ht="14.5" customHeight="1">
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
@@ -22428,38 +22433,38 @@
       <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" customWidth="1"/>
+    <col min="4" max="4" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" customWidth="1"/>
+    <col min="6" max="6" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="9" width="8.42578125" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" customWidth="1"/>
-    <col min="11" max="12" width="8.42578125" customWidth="1"/>
-    <col min="13" max="18" width="8.42578125" style="83"/>
+    <col min="8" max="9" width="8.453125" customWidth="1"/>
+    <col min="10" max="10" width="16.1796875" customWidth="1"/>
+    <col min="11" max="12" width="8.453125" customWidth="1"/>
+    <col min="13" max="18" width="8.453125" style="83"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="115" t="s">
         <v>721</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="116"/>
-    </row>
-    <row r="2" spans="1:12" ht="57.95" customHeight="1">
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="117"/>
+    </row>
+    <row r="2" spans="1:12" ht="58" customHeight="1">
       <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
@@ -22513,7 +22518,7 @@
       <c r="K3" s="33"/>
       <c r="L3" s="33"/>
     </row>
-    <row r="4" spans="1:12" ht="30">
+    <row r="4" spans="1:12" ht="29">
       <c r="A4" s="54" t="s">
         <v>608</v>
       </c>
@@ -22545,7 +22550,7 @@
       </c>
       <c r="L4" s="54"/>
     </row>
-    <row r="5" spans="1:12" s="83" customFormat="1" ht="45">
+    <row r="5" spans="1:12" s="83" customFormat="1" ht="29">
       <c r="A5" s="54" t="s">
         <v>608</v>
       </c>
@@ -22927,23 +22932,23 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="31.453125" customWidth="1"/>
+    <col min="5" max="5" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="40" customFormat="1" ht="105.75" customHeight="1">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="112" t="s">
         <v>930</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
@@ -22962,7 +22967,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="45">
+    <row r="3" spans="1:5" ht="43.5">
       <c r="A3" s="32" t="s">
         <v>605</v>
       </c>
@@ -22984,28 +22989,28 @@
       <c r="D4" s="32"/>
       <c r="E4" s="32"/>
     </row>
-    <row r="5" spans="1:5" ht="15.95" customHeight="1">
+    <row r="5" spans="1:5" ht="16" customHeight="1">
       <c r="A5" s="32"/>
       <c r="B5" s="55"/>
       <c r="C5" s="55"/>
       <c r="D5" s="20"/>
       <c r="E5" s="32"/>
     </row>
-    <row r="6" spans="1:5" ht="27.95" customHeight="1">
+    <row r="6" spans="1:5" ht="28" customHeight="1">
       <c r="A6" s="32"/>
       <c r="B6" s="32"/>
       <c r="C6" s="32"/>
       <c r="D6" s="32"/>
       <c r="E6" s="32"/>
     </row>
-    <row r="7" spans="1:5" ht="27.95" customHeight="1">
+    <row r="7" spans="1:5" ht="28" customHeight="1">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="C7" s="32"/>
       <c r="D7" s="32"/>
       <c r="E7" s="32"/>
     </row>
-    <row r="8" spans="1:5" ht="27.95" customHeight="1">
+    <row r="8" spans="1:5" ht="28" customHeight="1">
       <c r="A8" s="32"/>
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
@@ -23084,32 +23089,32 @@
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="4" width="10.42578125" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="10" width="12.42578125" customWidth="1"/>
-    <col min="11" max="11" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="8.42578125" customWidth="1"/>
+    <col min="1" max="1" width="8.453125" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" customWidth="1"/>
+    <col min="3" max="4" width="10.453125" customWidth="1"/>
+    <col min="5" max="5" width="19.453125" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" customWidth="1"/>
+    <col min="7" max="10" width="12.453125" customWidth="1"/>
+    <col min="11" max="11" width="38.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="8.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21.95" customHeight="1">
-      <c r="A1" s="114" t="s">
+    <row r="1" spans="1:11" ht="22" customHeight="1">
+      <c r="A1" s="115" t="s">
         <v>721</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
     </row>
     <row r="2" spans="1:11" ht="72.75" customHeight="1">
       <c r="A2" s="28" t="s">
@@ -23161,7 +23166,7 @@
       <c r="J3" s="33"/>
       <c r="K3" s="33"/>
     </row>
-    <row r="4" spans="1:11" ht="30">
+    <row r="4" spans="1:11" ht="29">
       <c r="A4" s="54" t="s">
         <v>608</v>
       </c>
@@ -23196,7 +23201,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="45">
+    <row r="5" spans="1:11" ht="43.5">
       <c r="A5" s="54" t="s">
         <v>608</v>
       </c>
@@ -23229,7 +23234,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="30">
+    <row r="6" spans="1:11">
       <c r="A6" s="54"/>
       <c r="B6" s="54"/>
       <c r="C6" s="54"/>
@@ -23293,40 +23298,40 @@
       <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" customWidth="1"/>
-    <col min="12" max="12" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" customWidth="1"/>
+    <col min="7" max="7" width="13.81640625" customWidth="1"/>
+    <col min="8" max="8" width="13.1796875" customWidth="1"/>
+    <col min="10" max="10" width="8.81640625" customWidth="1"/>
+    <col min="11" max="11" width="11.1796875" customWidth="1"/>
+    <col min="12" max="12" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.453125" customWidth="1"/>
+    <col min="14" max="14" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="159.94999999999999" customHeight="1">
-      <c r="A1" s="114" t="s">
+    <row r="1" spans="1:16" ht="160" customHeight="1">
+      <c r="A1" s="115" t="s">
         <v>922</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
-    </row>
-    <row r="2" spans="1:16" ht="60">
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+    </row>
+    <row r="2" spans="1:16" ht="43.5">
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
@@ -23396,7 +23401,7 @@
       <c r="O3" s="33"/>
       <c r="P3" s="33"/>
     </row>
-    <row r="4" spans="1:16" ht="45">
+    <row r="4" spans="1:16" ht="43.5">
       <c r="A4" s="53" t="s">
         <v>315</v>
       </c>
@@ -23510,59 +23515,59 @@
       <selection sqref="A1:AA1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="20.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.1796875" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" customWidth="1"/>
+    <col min="6" max="6" width="14.1796875" customWidth="1"/>
+    <col min="7" max="8" width="11.453125" customWidth="1"/>
+    <col min="9" max="9" width="27.453125" customWidth="1"/>
     <col min="10" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
-    <col min="16" max="16" width="20.42578125" style="3"/>
+    <col min="12" max="12" width="16.453125" customWidth="1"/>
+    <col min="13" max="13" width="14.453125" customWidth="1"/>
+    <col min="16" max="16" width="20.453125" style="3"/>
     <col min="20" max="20" width="23" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="23.140625" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" customWidth="1"/>
-    <col min="28" max="28" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.1796875" customWidth="1"/>
+    <col min="26" max="26" width="14.81640625" customWidth="1"/>
+    <col min="28" max="28" width="23.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="1" customFormat="1" ht="135.75" customHeight="1">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="115" t="s">
         <v>923</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
-      <c r="Q1" s="115"/>
-      <c r="R1" s="115"/>
-      <c r="S1" s="115"/>
-      <c r="T1" s="115"/>
-      <c r="U1" s="115"/>
-      <c r="V1" s="115"/>
-      <c r="W1" s="115"/>
-      <c r="X1" s="115"/>
-      <c r="Y1" s="115"/>
-      <c r="Z1" s="115"/>
-      <c r="AA1" s="116"/>
-    </row>
-    <row r="2" spans="1:27" s="48" customFormat="1" ht="45">
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="116"/>
+      <c r="S1" s="116"/>
+      <c r="T1" s="116"/>
+      <c r="U1" s="116"/>
+      <c r="V1" s="116"/>
+      <c r="W1" s="116"/>
+      <c r="X1" s="116"/>
+      <c r="Y1" s="116"/>
+      <c r="Z1" s="116"/>
+      <c r="AA1" s="117"/>
+    </row>
+    <row r="2" spans="1:27" s="48" customFormat="1" ht="43.5">
       <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
@@ -23676,7 +23681,7 @@
       <c r="Z3" s="33"/>
       <c r="AA3" s="33"/>
     </row>
-    <row r="4" spans="1:27" ht="30">
+    <row r="4" spans="1:27" ht="29">
       <c r="A4" s="87" t="s">
         <v>315</v>
       </c>
@@ -23751,7 +23756,7 @@
       <c r="Z4" s="53"/>
       <c r="AA4" s="53"/>
     </row>
-    <row r="5" spans="1:27" ht="45">
+    <row r="5" spans="1:27" ht="29">
       <c r="A5" s="53" t="s">
         <v>315</v>
       </c>
@@ -26914,29 +26919,29 @@
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" customWidth="1"/>
+    <col min="5" max="5" width="16.453125" customWidth="1"/>
+    <col min="8" max="8" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="119.25" customHeight="1">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="115" t="s">
         <v>924</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-    </row>
-    <row r="2" spans="1:8" ht="45">
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+    </row>
+    <row r="2" spans="1:8" ht="43.5">
       <c r="A2" s="66" t="s">
         <v>0</v>
       </c>
@@ -29807,55 +29812,55 @@
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.453125" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.140625" customWidth="1"/>
-    <col min="24" max="25" width="14.42578125" customWidth="1"/>
-    <col min="26" max="26" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.1796875" customWidth="1"/>
+    <col min="24" max="25" width="14.453125" customWidth="1"/>
+    <col min="26" max="26" width="15.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="195" customHeight="1">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="126" t="s">
         <v>925</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126"/>
-      <c r="O1" s="126"/>
-      <c r="P1" s="126"/>
-      <c r="Q1" s="126"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="127"/>
+      <c r="Q1" s="127"/>
       <c r="R1" s="72"/>
       <c r="S1" s="72"/>
       <c r="T1" s="72"/>
@@ -29864,7 +29869,7 @@
       <c r="W1" s="72"/>
       <c r="X1" s="72"/>
     </row>
-    <row r="2" spans="1:24" s="71" customFormat="1" ht="45">
+    <row r="2" spans="1:24" s="71" customFormat="1" ht="43.5">
       <c r="A2" s="66" t="s">
         <v>0</v>
       </c>
@@ -29924,7 +29929,7 @@
       <c r="W2"/>
       <c r="X2"/>
     </row>
-    <row r="3" spans="1:24" ht="14.45" customHeight="1">
+    <row r="3" spans="1:24" ht="14.5" customHeight="1">
       <c r="A3" s="75" t="s">
         <v>4</v>
       </c>
@@ -29944,7 +29949,7 @@
       <c r="P3" s="33"/>
       <c r="Q3" s="33"/>
     </row>
-    <row r="4" spans="1:24" ht="14.45" customHeight="1">
+    <row r="4" spans="1:24" ht="14.5" customHeight="1">
       <c r="A4" s="87" t="s">
         <v>315</v>
       </c>
@@ -34249,33 +34254,33 @@
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" customWidth="1"/>
+    <col min="7" max="7" width="15.81640625" customWidth="1"/>
+    <col min="8" max="8" width="16.1796875" customWidth="1"/>
+    <col min="9" max="9" width="10.1796875" customWidth="1"/>
     <col min="16" max="16" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="94.5" customHeight="1">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="126" t="s">
         <v>953</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126"/>
-      <c r="O1" s="127"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="128"/>
       <c r="P1" s="14"/>
     </row>
     <row r="2" spans="1:17" s="48" customFormat="1" ht="72.75" customHeight="1">
@@ -34325,7 +34330,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="14.45" customHeight="1">
+    <row r="3" spans="1:17" ht="14.5" customHeight="1">
       <c r="A3" s="75" t="s">
         <v>4</v>
       </c>
@@ -34411,35 +34416,35 @@
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="10.453125" customWidth="1"/>
+    <col min="3" max="3" width="19.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" customWidth="1"/>
+    <col min="12" max="12" width="11.453125" customWidth="1"/>
+    <col min="13" max="13" width="11.81640625" customWidth="1"/>
+    <col min="15" max="15" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="51.95" customHeight="1">
-      <c r="A1" s="125" t="s">
+    <row r="1" spans="1:17" ht="52" customHeight="1">
+      <c r="A1" s="126" t="s">
         <v>860</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126"/>
-    </row>
-    <row r="2" spans="1:17" s="40" customFormat="1" ht="60">
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+    </row>
+    <row r="2" spans="1:17" s="40" customFormat="1" ht="43.5">
       <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
@@ -34484,7 +34489,7 @@
       </c>
       <c r="O2" s="48"/>
     </row>
-    <row r="3" spans="1:17" ht="14.45" customHeight="1">
+    <row r="3" spans="1:17" ht="14.5" customHeight="1">
       <c r="A3" s="75" t="s">
         <v>4</v>
       </c>
@@ -34562,51 +34567,51 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="33" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="33" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="33" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="33" customWidth="1"/>
-    <col min="9" max="9" width="38.42578125" style="33" customWidth="1"/>
-    <col min="10" max="10" width="25.42578125" style="33" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="33" customWidth="1"/>
-    <col min="12" max="12" width="23.42578125" style="33" customWidth="1"/>
+    <col min="1" max="1" width="7.453125" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" style="33" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" style="33" customWidth="1"/>
+    <col min="6" max="6" width="15.453125" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.81640625" style="33" customWidth="1"/>
+    <col min="8" max="8" width="8.81640625" style="33" customWidth="1"/>
+    <col min="9" max="9" width="38.453125" style="33" customWidth="1"/>
+    <col min="10" max="10" width="25.453125" style="33" customWidth="1"/>
+    <col min="11" max="11" width="13.453125" style="33" customWidth="1"/>
+    <col min="12" max="12" width="23.453125" style="33" customWidth="1"/>
     <col min="13" max="13" width="13" style="33" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="32" customWidth="1"/>
-    <col min="15" max="15" width="15.42578125" style="33" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="33" customWidth="1"/>
+    <col min="14" max="14" width="11.453125" style="32" customWidth="1"/>
+    <col min="15" max="15" width="15.453125" style="33" customWidth="1"/>
+    <col min="16" max="17" width="14.453125" style="33" customWidth="1"/>
     <col min="18" max="18" width="12" style="33" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.42578125" style="33"/>
+    <col min="19" max="16384" width="8.453125" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="264" customHeight="1">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="138" t="s">
         <v>926</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
-      <c r="L1" s="138"/>
-      <c r="M1" s="138"/>
-      <c r="N1" s="138"/>
-      <c r="O1" s="138"/>
-      <c r="P1" s="138"/>
-      <c r="Q1" s="138"/>
-      <c r="R1" s="139"/>
-    </row>
-    <row r="2" spans="1:18" ht="45">
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="139"/>
+      <c r="O1" s="139"/>
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="140"/>
+    </row>
+    <row r="2" spans="1:18" ht="43.5">
       <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
@@ -34937,23 +34942,23 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
-    <col min="9" max="10" width="11.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" customWidth="1"/>
+    <col min="5" max="5" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.81640625" customWidth="1"/>
+    <col min="8" max="8" width="15.81640625" customWidth="1"/>
+    <col min="9" max="10" width="11.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="45">
+    <row r="1" spans="1:13" ht="43.5">
       <c r="A1" s="42" t="s">
         <v>643</v>
       </c>
@@ -34992,7 +34997,7 @@
       </c>
       <c r="M1" s="44"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" ht="16">
       <c r="A2" s="67" t="s">
         <v>101</v>
       </c>
@@ -35030,7 +35035,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" ht="16">
       <c r="A3" s="67" t="s">
         <v>638</v>
       </c>
@@ -35747,50 +35752,50 @@
       <selection activeCell="AT2" sqref="AT2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="28.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="64" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="64" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="20.140625" style="64" customWidth="1"/>
-    <col min="5" max="6" width="28.42578125" style="64"/>
+    <col min="1" max="1" width="7.453125" style="64" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" style="64" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="20.1796875" style="64" customWidth="1"/>
+    <col min="5" max="6" width="28.453125" style="64"/>
     <col min="7" max="7" width="13" style="64" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="64" customWidth="1"/>
-    <col min="9" max="9" width="41.42578125" style="64" customWidth="1"/>
-    <col min="10" max="10" width="38.140625" style="64" customWidth="1"/>
-    <col min="11" max="11" width="33.85546875" style="64" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="64" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.42578125" style="64" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.42578125" style="64" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="64" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="64" customWidth="1"/>
-    <col min="17" max="17" width="29.85546875" style="64" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="29.85546875" style="64" customWidth="1"/>
-    <col min="19" max="19" width="9.42578125" style="64" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.453125" style="64" customWidth="1"/>
+    <col min="9" max="9" width="41.453125" style="64" customWidth="1"/>
+    <col min="10" max="10" width="38.1796875" style="64" customWidth="1"/>
+    <col min="11" max="11" width="33.81640625" style="64" customWidth="1"/>
+    <col min="12" max="12" width="11.453125" style="64" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.453125" style="64" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.453125" style="64" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.453125" style="64" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.453125" style="64" customWidth="1"/>
+    <col min="17" max="17" width="29.81640625" style="64" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.81640625" style="64" customWidth="1"/>
+    <col min="19" max="19" width="9.453125" style="64" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9" style="64" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11" style="64" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="18" style="64" bestFit="1" customWidth="1"/>
     <col min="23" max="25" width="18" style="64" customWidth="1"/>
-    <col min="26" max="26" width="21.42578125" style="64" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="64" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.42578125" style="64" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.85546875" style="64" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.453125" style="64" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.81640625" style="64" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.453125" style="64" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.81640625" style="64" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="18" style="64" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.140625" style="64" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="22.42578125" style="64" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="30.140625" style="64" customWidth="1"/>
-    <col min="34" max="34" width="15.42578125" style="64" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="44.42578125" style="64" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="22.140625" style="64" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="30.42578125" style="64" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="28.140625" style="64" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="16.140625" style="64" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.140625" style="64" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="17.140625" style="64" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="12.42578125" style="64" bestFit="1" customWidth="1"/>
-    <col min="43" max="16384" width="28.42578125" style="64"/>
+    <col min="31" max="31" width="11.1796875" style="64" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="22.453125" style="64" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="30.1796875" style="64" customWidth="1"/>
+    <col min="34" max="34" width="15.453125" style="64" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="44.453125" style="64" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="22.1796875" style="64" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="30.453125" style="64" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="28.1796875" style="64" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="16.1796875" style="64" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.1796875" style="64" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="17.1796875" style="64" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.453125" style="64" bestFit="1" customWidth="1"/>
+    <col min="43" max="16384" width="28.453125" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="57" customFormat="1" ht="147.94999999999999" customHeight="1">
+    <row r="1" spans="1:46" s="57" customFormat="1" ht="148" customHeight="1">
       <c r="A1" s="65" t="s">
         <v>566</v>
       </c>
@@ -36082,7 +36087,7 @@
         <v>VCN::Rayzone1-VCN1</v>
       </c>
     </row>
-    <row r="3" spans="1:46" s="58" customFormat="1" ht="25.5">
+    <row r="3" spans="1:46" s="58" customFormat="1">
       <c r="A3" s="58">
         <v>4</v>
       </c>
@@ -41850,29 +41855,29 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="156.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="156.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="31.453125" customWidth="1"/>
+    <col min="5" max="5" width="25.81640625" customWidth="1"/>
+    <col min="6" max="6" width="23.453125" customWidth="1"/>
+    <col min="7" max="7" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="40" customFormat="1" ht="156.75" customHeight="1">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="112" t="s">
         <v>902</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="113"/>
-    </row>
-    <row r="2" spans="1:7" ht="15">
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="114"/>
+    </row>
+    <row r="2" spans="1:7" ht="14.5">
       <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
@@ -41895,7 +41900,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15">
+    <row r="3" spans="1:7" ht="14.5">
       <c r="A3" s="33" t="s">
         <v>605</v>
       </c>
@@ -41914,7 +41919,7 @@
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
     </row>
-    <row r="4" spans="1:7" ht="14.45" customHeight="1">
+    <row r="4" spans="1:7" ht="14.5" customHeight="1">
       <c r="A4" s="39" t="s">
         <v>4</v>
       </c>
@@ -41925,7 +41930,7 @@
       <c r="F4" s="33"/>
       <c r="G4" s="33"/>
     </row>
-    <row r="5" spans="1:7" ht="14.45" customHeight="1">
+    <row r="5" spans="1:7" ht="14.5" customHeight="1">
       <c r="A5" s="33"/>
       <c r="B5" s="33"/>
       <c r="C5" s="33"/>
@@ -41934,7 +41939,7 @@
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
     </row>
-    <row r="6" spans="1:7" ht="14.45" customHeight="1">
+    <row r="6" spans="1:7" ht="14.5" customHeight="1">
       <c r="A6" s="33"/>
       <c r="B6" s="33"/>
       <c r="C6" s="33"/>
@@ -41943,7 +41948,7 @@
       <c r="F6" s="33"/>
       <c r="G6" s="33"/>
     </row>
-    <row r="7" spans="1:7" ht="14.45" customHeight="1">
+    <row r="7" spans="1:7" ht="14.5" customHeight="1">
       <c r="A7" s="33"/>
       <c r="B7" s="33"/>
       <c r="C7" s="33"/>
@@ -41952,7 +41957,7 @@
       <c r="F7" s="33"/>
       <c r="G7" s="33"/>
     </row>
-    <row r="8" spans="1:7" ht="14.45" customHeight="1">
+    <row r="8" spans="1:7" ht="14.5" customHeight="1">
       <c r="A8" s="33"/>
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
@@ -41961,7 +41966,7 @@
       <c r="F8" s="33"/>
       <c r="G8" s="33"/>
     </row>
-    <row r="9" spans="1:7" ht="14.45" customHeight="1">
+    <row r="9" spans="1:7" ht="14.5" customHeight="1">
       <c r="A9" s="33"/>
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
@@ -41970,7 +41975,7 @@
       <c r="F9" s="33"/>
       <c r="G9" s="33"/>
     </row>
-    <row r="10" spans="1:7" ht="14.45" customHeight="1">
+    <row r="10" spans="1:7" ht="14.5" customHeight="1">
       <c r="A10" s="33"/>
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
@@ -41979,7 +41984,7 @@
       <c r="F10" s="33"/>
       <c r="G10" s="33"/>
     </row>
-    <row r="11" spans="1:7" ht="14.45" customHeight="1">
+    <row r="11" spans="1:7" ht="14.5" customHeight="1">
       <c r="A11" s="33"/>
       <c r="B11" s="33"/>
       <c r="C11" s="33"/>
@@ -41988,7 +41993,7 @@
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
     </row>
-    <row r="12" spans="1:7" ht="14.45" customHeight="1">
+    <row r="12" spans="1:7" ht="14.5" customHeight="1">
       <c r="A12" s="33"/>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
@@ -41997,7 +42002,7 @@
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
     </row>
-    <row r="13" spans="1:7" ht="14.45" customHeight="1">
+    <row r="13" spans="1:7" ht="14.5" customHeight="1">
       <c r="A13" s="33"/>
       <c r="B13" s="33"/>
       <c r="C13" s="33"/>
@@ -42006,7 +42011,7 @@
       <c r="F13" s="33"/>
       <c r="G13" s="33"/>
     </row>
-    <row r="14" spans="1:7" ht="14.45" customHeight="1">
+    <row r="14" spans="1:7" ht="14.5" customHeight="1">
       <c r="A14" s="33"/>
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
@@ -42015,7 +42020,7 @@
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
     </row>
-    <row r="15" spans="1:7" ht="14.45" customHeight="1">
+    <row r="15" spans="1:7" ht="14.5" customHeight="1">
       <c r="A15" s="33"/>
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
@@ -42024,7 +42029,7 @@
       <c r="F15" s="33"/>
       <c r="G15" s="33"/>
     </row>
-    <row r="16" spans="1:7" ht="14.45" customHeight="1">
+    <row r="16" spans="1:7" ht="14.5" customHeight="1">
       <c r="A16" s="33"/>
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
@@ -42033,7 +42038,7 @@
       <c r="F16" s="33"/>
       <c r="G16" s="33"/>
     </row>
-    <row r="17" spans="1:7" ht="14.45" customHeight="1">
+    <row r="17" spans="1:7" ht="14.5" customHeight="1">
       <c r="A17" s="33"/>
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
@@ -42042,7 +42047,7 @@
       <c r="F17" s="33"/>
       <c r="G17" s="33"/>
     </row>
-    <row r="18" spans="1:7" ht="14.45" customHeight="1">
+    <row r="18" spans="1:7" ht="14.5" customHeight="1">
       <c r="A18" s="33"/>
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
@@ -42051,7 +42056,7 @@
       <c r="F18" s="33"/>
       <c r="G18" s="33"/>
     </row>
-    <row r="19" spans="1:7" ht="14.45" customHeight="1">
+    <row r="19" spans="1:7" ht="14.5" customHeight="1">
       <c r="A19" s="33"/>
       <c r="B19" s="33"/>
       <c r="C19" s="33"/>
@@ -42060,7 +42065,7 @@
       <c r="F19" s="33"/>
       <c r="G19" s="33"/>
     </row>
-    <row r="20" spans="1:7" ht="14.45" customHeight="1">
+    <row r="20" spans="1:7" ht="14.5" customHeight="1">
       <c r="A20" s="33"/>
       <c r="B20" s="33"/>
       <c r="C20" s="33"/>
@@ -42069,7 +42074,7 @@
       <c r="F20" s="33"/>
       <c r="G20" s="33"/>
     </row>
-    <row r="21" spans="1:7" ht="14.45" customHeight="1">
+    <row r="21" spans="1:7" ht="14.5" customHeight="1">
       <c r="A21" s="33"/>
       <c r="B21" s="33"/>
       <c r="C21" s="33"/>
@@ -42078,7 +42083,7 @@
       <c r="F21" s="33"/>
       <c r="G21" s="33"/>
     </row>
-    <row r="22" spans="1:7" ht="14.45" customHeight="1">
+    <row r="22" spans="1:7" ht="14.5" customHeight="1">
       <c r="A22" s="33"/>
       <c r="B22" s="33"/>
       <c r="C22" s="33"/>
@@ -42087,7 +42092,7 @@
       <c r="F22" s="33"/>
       <c r="G22" s="33"/>
     </row>
-    <row r="23" spans="1:7" ht="14.45" customHeight="1">
+    <row r="23" spans="1:7" ht="14.5" customHeight="1">
       <c r="A23" s="33"/>
       <c r="B23" s="33"/>
       <c r="C23" s="33"/>
@@ -42096,7 +42101,7 @@
       <c r="F23" s="33"/>
       <c r="G23" s="33"/>
     </row>
-    <row r="24" spans="1:7" ht="14.45" customHeight="1">
+    <row r="24" spans="1:7" ht="14.5" customHeight="1">
       <c r="A24" s="33"/>
       <c r="B24" s="33"/>
       <c r="C24" s="33"/>
@@ -42105,7 +42110,7 @@
       <c r="F24" s="33"/>
       <c r="G24" s="33"/>
     </row>
-    <row r="25" spans="1:7" ht="14.45" customHeight="1">
+    <row r="25" spans="1:7" ht="14.5" customHeight="1">
       <c r="A25" s="33"/>
       <c r="B25" s="33"/>
       <c r="C25" s="33"/>
@@ -42114,7 +42119,7 @@
       <c r="F25" s="33"/>
       <c r="G25" s="33"/>
     </row>
-    <row r="26" spans="1:7" ht="14.45" customHeight="1">
+    <row r="26" spans="1:7" ht="14.5" customHeight="1">
       <c r="A26" s="33"/>
       <c r="B26" s="33"/>
       <c r="C26" s="33"/>
@@ -42123,7 +42128,7 @@
       <c r="F26" s="33"/>
       <c r="G26" s="33"/>
     </row>
-    <row r="27" spans="1:7" ht="14.45" customHeight="1">
+    <row r="27" spans="1:7" ht="14.5" customHeight="1">
       <c r="A27" s="33"/>
       <c r="B27" s="33"/>
       <c r="C27" s="33"/>
@@ -42132,7 +42137,7 @@
       <c r="F27" s="33"/>
       <c r="G27" s="33"/>
     </row>
-    <row r="28" spans="1:7" ht="14.45" customHeight="1">
+    <row r="28" spans="1:7" ht="14.5" customHeight="1">
       <c r="A28" s="33"/>
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
@@ -42141,7 +42146,7 @@
       <c r="F28" s="33"/>
       <c r="G28" s="33"/>
     </row>
-    <row r="29" spans="1:7" ht="14.45" customHeight="1">
+    <row r="29" spans="1:7" ht="14.5" customHeight="1">
       <c r="A29" s="33"/>
       <c r="B29" s="33"/>
       <c r="C29" s="33"/>
@@ -42150,7 +42155,7 @@
       <c r="F29" s="33"/>
       <c r="G29" s="33"/>
     </row>
-    <row r="30" spans="1:7" ht="14.45" customHeight="1">
+    <row r="30" spans="1:7" ht="14.5" customHeight="1">
       <c r="A30" s="33"/>
       <c r="B30" s="33"/>
       <c r="C30" s="33"/>
@@ -42159,7 +42164,7 @@
       <c r="F30" s="33"/>
       <c r="G30" s="33"/>
     </row>
-    <row r="31" spans="1:7" ht="14.45" customHeight="1">
+    <row r="31" spans="1:7" ht="14.5" customHeight="1">
       <c r="A31" s="33"/>
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
@@ -42168,7 +42173,7 @@
       <c r="F31" s="33"/>
       <c r="G31" s="33"/>
     </row>
-    <row r="32" spans="1:7" ht="14.45" customHeight="1">
+    <row r="32" spans="1:7" ht="14.5" customHeight="1">
       <c r="A32" s="33"/>
       <c r="B32" s="33"/>
       <c r="C32" s="33"/>
@@ -42177,7 +42182,7 @@
       <c r="F32" s="33"/>
       <c r="G32" s="33"/>
     </row>
-    <row r="33" spans="1:7" ht="14.45" customHeight="1">
+    <row r="33" spans="1:7" ht="14.5" customHeight="1">
       <c r="A33" s="33"/>
       <c r="B33" s="33"/>
       <c r="C33" s="33"/>
@@ -42186,7 +42191,7 @@
       <c r="F33" s="33"/>
       <c r="G33" s="33"/>
     </row>
-    <row r="34" spans="1:7" ht="14.45" customHeight="1">
+    <row r="34" spans="1:7" ht="14.5" customHeight="1">
       <c r="A34" s="33"/>
       <c r="B34" s="33"/>
       <c r="C34" s="33"/>
@@ -42195,7 +42200,7 @@
       <c r="F34" s="33"/>
       <c r="G34" s="33"/>
     </row>
-    <row r="35" spans="1:7" ht="14.45" customHeight="1">
+    <row r="35" spans="1:7" ht="14.5" customHeight="1">
       <c r="A35" s="33"/>
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
@@ -42204,7 +42209,7 @@
       <c r="F35" s="33"/>
       <c r="G35" s="33"/>
     </row>
-    <row r="36" spans="1:7" ht="14.45" customHeight="1">
+    <row r="36" spans="1:7" ht="14.5" customHeight="1">
       <c r="A36" s="33"/>
       <c r="B36" s="33"/>
       <c r="C36" s="33"/>
@@ -42213,7 +42218,7 @@
       <c r="F36" s="33"/>
       <c r="G36" s="33"/>
     </row>
-    <row r="37" spans="1:7" ht="14.45" customHeight="1">
+    <row r="37" spans="1:7" ht="14.5" customHeight="1">
       <c r="A37" s="33"/>
       <c r="B37" s="33"/>
       <c r="C37" s="33"/>
@@ -42222,7 +42227,7 @@
       <c r="F37" s="33"/>
       <c r="G37" s="33"/>
     </row>
-    <row r="38" spans="1:7" ht="14.45" customHeight="1">
+    <row r="38" spans="1:7" ht="14.5" customHeight="1">
       <c r="A38" s="33"/>
       <c r="B38" s="33"/>
       <c r="C38" s="33"/>
@@ -42231,7 +42236,7 @@
       <c r="F38" s="33"/>
       <c r="G38" s="33"/>
     </row>
-    <row r="39" spans="1:7" ht="14.45" customHeight="1">
+    <row r="39" spans="1:7" ht="14.5" customHeight="1">
       <c r="A39" s="33"/>
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
@@ -42240,7 +42245,7 @@
       <c r="F39" s="33"/>
       <c r="G39" s="33"/>
     </row>
-    <row r="40" spans="1:7" ht="14.45" customHeight="1">
+    <row r="40" spans="1:7" ht="14.5" customHeight="1">
       <c r="A40" s="33"/>
       <c r="B40" s="33"/>
       <c r="C40" s="33"/>
@@ -42249,7 +42254,7 @@
       <c r="F40" s="33"/>
       <c r="G40" s="33"/>
     </row>
-    <row r="41" spans="1:7" ht="14.45" customHeight="1">
+    <row r="41" spans="1:7" ht="14.5" customHeight="1">
       <c r="A41" s="33"/>
       <c r="B41" s="33"/>
       <c r="C41" s="33"/>
@@ -42258,7 +42263,7 @@
       <c r="F41" s="33"/>
       <c r="G41" s="33"/>
     </row>
-    <row r="42" spans="1:7" ht="14.45" customHeight="1">
+    <row r="42" spans="1:7" ht="14.5" customHeight="1">
       <c r="A42" s="33"/>
       <c r="B42" s="33"/>
       <c r="C42" s="33"/>
@@ -42267,7 +42272,7 @@
       <c r="F42" s="33"/>
       <c r="G42" s="33"/>
     </row>
-    <row r="43" spans="1:7" ht="14.45" customHeight="1">
+    <row r="43" spans="1:7" ht="14.5" customHeight="1">
       <c r="A43" s="33"/>
       <c r="B43" s="33"/>
       <c r="C43" s="33"/>
@@ -42276,7 +42281,7 @@
       <c r="F43" s="33"/>
       <c r="G43" s="33"/>
     </row>
-    <row r="44" spans="1:7" ht="14.45" customHeight="1">
+    <row r="44" spans="1:7" ht="14.5" customHeight="1">
       <c r="A44" s="33"/>
       <c r="B44" s="33"/>
       <c r="C44" s="33"/>
@@ -42285,7 +42290,7 @@
       <c r="F44" s="33"/>
       <c r="G44" s="33"/>
     </row>
-    <row r="45" spans="1:7" ht="14.45" customHeight="1">
+    <row r="45" spans="1:7" ht="14.5" customHeight="1">
       <c r="A45" s="33"/>
       <c r="B45" s="33"/>
       <c r="C45" s="33"/>
@@ -42294,7 +42299,7 @@
       <c r="F45" s="33"/>
       <c r="G45" s="33"/>
     </row>
-    <row r="46" spans="1:7" ht="14.45" customHeight="1">
+    <row r="46" spans="1:7" ht="14.5" customHeight="1">
       <c r="A46" s="33"/>
       <c r="B46" s="33"/>
       <c r="C46" s="33"/>
@@ -42303,7 +42308,7 @@
       <c r="F46" s="33"/>
       <c r="G46" s="33"/>
     </row>
-    <row r="47" spans="1:7" ht="14.45" customHeight="1">
+    <row r="47" spans="1:7" ht="14.5" customHeight="1">
       <c r="A47" s="33"/>
       <c r="B47" s="33"/>
       <c r="C47" s="33"/>
@@ -42312,7 +42317,7 @@
       <c r="F47" s="33"/>
       <c r="G47" s="33"/>
     </row>
-    <row r="48" spans="1:7" ht="14.45" customHeight="1">
+    <row r="48" spans="1:7" ht="14.5" customHeight="1">
       <c r="A48" s="33"/>
       <c r="B48" s="33"/>
       <c r="C48" s="33"/>
@@ -42321,7 +42326,7 @@
       <c r="F48" s="33"/>
       <c r="G48" s="33"/>
     </row>
-    <row r="49" spans="1:7" ht="14.45" customHeight="1">
+    <row r="49" spans="1:7" ht="14.5" customHeight="1">
       <c r="A49" s="33"/>
       <c r="B49" s="33"/>
       <c r="C49" s="33"/>
@@ -42330,7 +42335,7 @@
       <c r="F49" s="33"/>
       <c r="G49" s="33"/>
     </row>
-    <row r="50" spans="1:7" ht="14.45" customHeight="1">
+    <row r="50" spans="1:7" ht="14.5" customHeight="1">
       <c r="A50" s="33"/>
       <c r="B50" s="33"/>
       <c r="C50" s="33"/>
@@ -42339,7 +42344,7 @@
       <c r="F50" s="33"/>
       <c r="G50" s="33"/>
     </row>
-    <row r="51" spans="1:7" ht="14.45" customHeight="1">
+    <row r="51" spans="1:7" ht="14.5" customHeight="1">
       <c r="A51" s="33"/>
       <c r="B51" s="33"/>
       <c r="C51" s="33"/>
@@ -42348,7 +42353,7 @@
       <c r="F51" s="33"/>
       <c r="G51" s="33"/>
     </row>
-    <row r="52" spans="1:7" ht="14.45" customHeight="1">
+    <row r="52" spans="1:7" ht="14.5" customHeight="1">
       <c r="A52" s="33"/>
       <c r="B52" s="33"/>
       <c r="C52" s="33"/>
@@ -42357,7 +42362,7 @@
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
     </row>
-    <row r="53" spans="1:7" ht="14.45" customHeight="1">
+    <row r="53" spans="1:7" ht="14.5" customHeight="1">
       <c r="A53" s="33"/>
       <c r="B53" s="33"/>
       <c r="C53" s="33"/>
@@ -42366,7 +42371,7 @@
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
     </row>
-    <row r="54" spans="1:7" ht="14.45" customHeight="1">
+    <row r="54" spans="1:7" ht="14.5" customHeight="1">
       <c r="A54" s="33"/>
       <c r="B54" s="33"/>
       <c r="C54" s="33"/>
@@ -42375,7 +42380,7 @@
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
     </row>
-    <row r="55" spans="1:7" ht="14.45" customHeight="1">
+    <row r="55" spans="1:7" ht="14.5" customHeight="1">
       <c r="A55" s="33"/>
       <c r="B55" s="33"/>
       <c r="C55" s="33"/>
@@ -42384,7 +42389,7 @@
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
     </row>
-    <row r="56" spans="1:7" ht="14.45" customHeight="1">
+    <row r="56" spans="1:7" ht="14.5" customHeight="1">
       <c r="A56" s="33"/>
       <c r="B56" s="33"/>
       <c r="C56" s="33"/>
@@ -42393,7 +42398,7 @@
       <c r="F56" s="33"/>
       <c r="G56" s="33"/>
     </row>
-    <row r="57" spans="1:7" ht="14.45" customHeight="1">
+    <row r="57" spans="1:7" ht="14.5" customHeight="1">
       <c r="A57" s="33"/>
       <c r="B57" s="33"/>
       <c r="C57" s="33"/>
@@ -42402,7 +42407,7 @@
       <c r="F57" s="33"/>
       <c r="G57" s="33"/>
     </row>
-    <row r="58" spans="1:7" ht="14.45" customHeight="1">
+    <row r="58" spans="1:7" ht="14.5" customHeight="1">
       <c r="A58" s="33"/>
       <c r="B58" s="33"/>
       <c r="C58" s="33"/>
@@ -42411,7 +42416,7 @@
       <c r="F58" s="33"/>
       <c r="G58" s="33"/>
     </row>
-    <row r="59" spans="1:7" ht="14.45" customHeight="1">
+    <row r="59" spans="1:7" ht="14.5" customHeight="1">
       <c r="A59" s="33"/>
       <c r="B59" s="33"/>
       <c r="C59" s="33"/>
@@ -42420,7 +42425,7 @@
       <c r="F59" s="33"/>
       <c r="G59" s="33"/>
     </row>
-    <row r="60" spans="1:7" ht="14.45" customHeight="1">
+    <row r="60" spans="1:7" ht="14.5" customHeight="1">
       <c r="A60" s="33"/>
       <c r="B60" s="33"/>
       <c r="C60" s="33"/>
@@ -42429,7 +42434,7 @@
       <c r="F60" s="33"/>
       <c r="G60" s="33"/>
     </row>
-    <row r="61" spans="1:7" ht="14.45" customHeight="1">
+    <row r="61" spans="1:7" ht="14.5" customHeight="1">
       <c r="A61" s="33"/>
       <c r="B61" s="33"/>
       <c r="C61" s="33"/>
@@ -42438,7 +42443,7 @@
       <c r="F61" s="33"/>
       <c r="G61" s="33"/>
     </row>
-    <row r="62" spans="1:7" ht="14.45" customHeight="1">
+    <row r="62" spans="1:7" ht="14.5" customHeight="1">
       <c r="A62" s="33"/>
       <c r="B62" s="33"/>
       <c r="C62" s="33"/>
@@ -42447,7 +42452,7 @@
       <c r="F62" s="33"/>
       <c r="G62" s="33"/>
     </row>
-    <row r="63" spans="1:7" ht="14.45" customHeight="1">
+    <row r="63" spans="1:7" ht="14.5" customHeight="1">
       <c r="A63" s="33"/>
       <c r="B63" s="33"/>
       <c r="C63" s="33"/>
@@ -42456,7 +42461,7 @@
       <c r="F63" s="33"/>
       <c r="G63" s="33"/>
     </row>
-    <row r="64" spans="1:7" ht="14.45" customHeight="1">
+    <row r="64" spans="1:7" ht="14.5" customHeight="1">
       <c r="A64" s="33"/>
       <c r="B64" s="33"/>
       <c r="C64" s="33"/>
@@ -42465,7 +42470,7 @@
       <c r="F64" s="33"/>
       <c r="G64" s="33"/>
     </row>
-    <row r="65" spans="1:7" ht="14.45" customHeight="1">
+    <row r="65" spans="1:7" ht="14.5" customHeight="1">
       <c r="A65" s="33"/>
       <c r="B65" s="33"/>
       <c r="C65" s="33"/>
@@ -42474,7 +42479,7 @@
       <c r="F65" s="33"/>
       <c r="G65" s="33"/>
     </row>
-    <row r="66" spans="1:7" ht="14.45" customHeight="1">
+    <row r="66" spans="1:7" ht="14.5" customHeight="1">
       <c r="A66" s="33"/>
       <c r="B66" s="33"/>
       <c r="C66" s="33"/>
@@ -42483,7 +42488,7 @@
       <c r="F66" s="33"/>
       <c r="G66" s="33"/>
     </row>
-    <row r="67" spans="1:7" ht="14.45" customHeight="1">
+    <row r="67" spans="1:7" ht="14.5" customHeight="1">
       <c r="A67" s="33"/>
       <c r="B67" s="33"/>
       <c r="C67" s="33"/>
@@ -42492,7 +42497,7 @@
       <c r="F67" s="33"/>
       <c r="G67" s="33"/>
     </row>
-    <row r="68" spans="1:7" ht="14.45" customHeight="1">
+    <row r="68" spans="1:7" ht="14.5" customHeight="1">
       <c r="A68" s="33"/>
       <c r="B68" s="33"/>
       <c r="C68" s="33"/>
@@ -42501,7 +42506,7 @@
       <c r="F68" s="33"/>
       <c r="G68" s="33"/>
     </row>
-    <row r="69" spans="1:7" ht="14.45" customHeight="1">
+    <row r="69" spans="1:7" ht="14.5" customHeight="1">
       <c r="A69" s="33"/>
       <c r="B69" s="33"/>
       <c r="C69" s="33"/>
@@ -42510,7 +42515,7 @@
       <c r="F69" s="33"/>
       <c r="G69" s="33"/>
     </row>
-    <row r="70" spans="1:7" ht="14.45" customHeight="1">
+    <row r="70" spans="1:7" ht="14.5" customHeight="1">
       <c r="A70" s="33"/>
       <c r="B70" s="33"/>
       <c r="C70" s="33"/>
@@ -42519,7 +42524,7 @@
       <c r="F70" s="33"/>
       <c r="G70" s="33"/>
     </row>
-    <row r="71" spans="1:7" ht="14.45" customHeight="1">
+    <row r="71" spans="1:7" ht="14.5" customHeight="1">
       <c r="A71" s="33"/>
       <c r="B71" s="33"/>
       <c r="C71" s="33"/>
@@ -42528,7 +42533,7 @@
       <c r="F71" s="33"/>
       <c r="G71" s="33"/>
     </row>
-    <row r="72" spans="1:7" ht="14.45" customHeight="1">
+    <row r="72" spans="1:7" ht="14.5" customHeight="1">
       <c r="A72" s="33"/>
       <c r="B72" s="33"/>
       <c r="C72" s="33"/>
@@ -42537,7 +42542,7 @@
       <c r="F72" s="33"/>
       <c r="G72" s="33"/>
     </row>
-    <row r="73" spans="1:7" ht="14.45" customHeight="1">
+    <row r="73" spans="1:7" ht="14.5" customHeight="1">
       <c r="A73" s="33"/>
       <c r="B73" s="33"/>
       <c r="C73" s="33"/>
@@ -42546,7 +42551,7 @@
       <c r="F73" s="33"/>
       <c r="G73" s="33"/>
     </row>
-    <row r="74" spans="1:7" ht="14.45" customHeight="1">
+    <row r="74" spans="1:7" ht="14.5" customHeight="1">
       <c r="A74" s="33"/>
       <c r="B74" s="33"/>
       <c r="C74" s="33"/>
@@ -42555,7 +42560,7 @@
       <c r="F74" s="33"/>
       <c r="G74" s="33"/>
     </row>
-    <row r="75" spans="1:7" ht="14.45" customHeight="1">
+    <row r="75" spans="1:7" ht="14.5" customHeight="1">
       <c r="A75" s="33"/>
       <c r="B75" s="33"/>
       <c r="C75" s="33"/>
@@ -42564,7 +42569,7 @@
       <c r="F75" s="33"/>
       <c r="G75" s="33"/>
     </row>
-    <row r="76" spans="1:7" ht="14.45" customHeight="1">
+    <row r="76" spans="1:7" ht="14.5" customHeight="1">
       <c r="A76" s="33"/>
       <c r="B76" s="33"/>
       <c r="C76" s="33"/>
@@ -42573,7 +42578,7 @@
       <c r="F76" s="33"/>
       <c r="G76" s="33"/>
     </row>
-    <row r="77" spans="1:7" ht="14.45" customHeight="1">
+    <row r="77" spans="1:7" ht="14.5" customHeight="1">
       <c r="A77" s="33"/>
       <c r="B77" s="33"/>
       <c r="C77" s="33"/>
@@ -42582,7 +42587,7 @@
       <c r="F77" s="33"/>
       <c r="G77" s="33"/>
     </row>
-    <row r="78" spans="1:7" ht="14.45" customHeight="1">
+    <row r="78" spans="1:7" ht="14.5" customHeight="1">
       <c r="A78" s="33"/>
       <c r="B78" s="33"/>
       <c r="C78" s="33"/>
@@ -42591,7 +42596,7 @@
       <c r="F78" s="33"/>
       <c r="G78" s="33"/>
     </row>
-    <row r="79" spans="1:7" ht="14.45" customHeight="1">
+    <row r="79" spans="1:7" ht="14.5" customHeight="1">
       <c r="A79" s="33"/>
       <c r="B79" s="33"/>
       <c r="C79" s="33"/>
@@ -42600,7 +42605,7 @@
       <c r="F79" s="33"/>
       <c r="G79" s="33"/>
     </row>
-    <row r="80" spans="1:7" ht="14.45" customHeight="1">
+    <row r="80" spans="1:7" ht="14.5" customHeight="1">
       <c r="A80" s="33"/>
       <c r="B80" s="33"/>
       <c r="C80" s="33"/>
@@ -42609,7 +42614,7 @@
       <c r="F80" s="33"/>
       <c r="G80" s="33"/>
     </row>
-    <row r="81" spans="1:7" ht="14.45" customHeight="1">
+    <row r="81" spans="1:7" ht="14.5" customHeight="1">
       <c r="A81" s="33"/>
       <c r="B81" s="33"/>
       <c r="C81" s="33"/>
@@ -42618,7 +42623,7 @@
       <c r="F81" s="33"/>
       <c r="G81" s="33"/>
     </row>
-    <row r="82" spans="1:7" ht="14.45" customHeight="1">
+    <row r="82" spans="1:7" ht="14.5" customHeight="1">
       <c r="A82" s="33"/>
       <c r="B82" s="33"/>
       <c r="C82" s="33"/>
@@ -42627,7 +42632,7 @@
       <c r="F82" s="33"/>
       <c r="G82" s="33"/>
     </row>
-    <row r="83" spans="1:7" ht="14.45" customHeight="1">
+    <row r="83" spans="1:7" ht="14.5" customHeight="1">
       <c r="A83" s="33"/>
       <c r="B83" s="33"/>
       <c r="C83" s="33"/>
@@ -42636,7 +42641,7 @@
       <c r="F83" s="33"/>
       <c r="G83" s="33"/>
     </row>
-    <row r="84" spans="1:7" ht="14.45" customHeight="1">
+    <row r="84" spans="1:7" ht="14.5" customHeight="1">
       <c r="A84" s="33"/>
       <c r="B84" s="33"/>
       <c r="C84" s="33"/>
@@ -42645,7 +42650,7 @@
       <c r="F84" s="33"/>
       <c r="G84" s="33"/>
     </row>
-    <row r="85" spans="1:7" ht="14.45" customHeight="1">
+    <row r="85" spans="1:7" ht="14.5" customHeight="1">
       <c r="A85" s="33"/>
       <c r="B85" s="33"/>
       <c r="C85" s="33"/>
@@ -42654,7 +42659,7 @@
       <c r="F85" s="33"/>
       <c r="G85" s="33"/>
     </row>
-    <row r="86" spans="1:7" ht="14.45" customHeight="1">
+    <row r="86" spans="1:7" ht="14.5" customHeight="1">
       <c r="A86" s="33"/>
       <c r="B86" s="33"/>
       <c r="C86" s="33"/>
@@ -42663,7 +42668,7 @@
       <c r="F86" s="33"/>
       <c r="G86" s="33"/>
     </row>
-    <row r="87" spans="1:7" ht="14.45" customHeight="1">
+    <row r="87" spans="1:7" ht="14.5" customHeight="1">
       <c r="A87" s="33"/>
       <c r="B87" s="33"/>
       <c r="C87" s="33"/>
@@ -42672,7 +42677,7 @@
       <c r="F87" s="33"/>
       <c r="G87" s="33"/>
     </row>
-    <row r="88" spans="1:7" ht="14.45" customHeight="1">
+    <row r="88" spans="1:7" ht="14.5" customHeight="1">
       <c r="A88" s="33"/>
       <c r="B88" s="33"/>
       <c r="C88" s="33"/>
@@ -42681,7 +42686,7 @@
       <c r="F88" s="33"/>
       <c r="G88" s="33"/>
     </row>
-    <row r="89" spans="1:7" ht="14.45" customHeight="1">
+    <row r="89" spans="1:7" ht="14.5" customHeight="1">
       <c r="A89" s="33"/>
       <c r="B89" s="33"/>
       <c r="C89" s="33"/>
@@ -42690,7 +42695,7 @@
       <c r="F89" s="33"/>
       <c r="G89" s="33"/>
     </row>
-    <row r="90" spans="1:7" ht="14.45" customHeight="1">
+    <row r="90" spans="1:7" ht="14.5" customHeight="1">
       <c r="A90" s="33"/>
       <c r="B90" s="33"/>
       <c r="C90" s="33"/>
@@ -42699,7 +42704,7 @@
       <c r="F90" s="33"/>
       <c r="G90" s="33"/>
     </row>
-    <row r="91" spans="1:7" ht="14.45" customHeight="1">
+    <row r="91" spans="1:7" ht="14.5" customHeight="1">
       <c r="A91" s="33"/>
       <c r="B91" s="33"/>
       <c r="C91" s="33"/>
@@ -42708,7 +42713,7 @@
       <c r="F91" s="33"/>
       <c r="G91" s="33"/>
     </row>
-    <row r="92" spans="1:7" ht="14.45" customHeight="1">
+    <row r="92" spans="1:7" ht="14.5" customHeight="1">
       <c r="A92" s="33"/>
       <c r="B92" s="33"/>
       <c r="C92" s="33"/>
@@ -42717,7 +42722,7 @@
       <c r="F92" s="33"/>
       <c r="G92" s="33"/>
     </row>
-    <row r="93" spans="1:7" ht="14.45" customHeight="1">
+    <row r="93" spans="1:7" ht="14.5" customHeight="1">
       <c r="A93" s="33"/>
       <c r="B93" s="33"/>
       <c r="C93" s="33"/>
@@ -42726,7 +42731,7 @@
       <c r="F93" s="33"/>
       <c r="G93" s="33"/>
     </row>
-    <row r="94" spans="1:7" ht="14.45" customHeight="1">
+    <row r="94" spans="1:7" ht="14.5" customHeight="1">
       <c r="A94" s="33"/>
       <c r="B94" s="33"/>
       <c r="C94" s="33"/>
@@ -42735,7 +42740,7 @@
       <c r="F94" s="33"/>
       <c r="G94" s="33"/>
     </row>
-    <row r="95" spans="1:7" ht="14.45" customHeight="1">
+    <row r="95" spans="1:7" ht="14.5" customHeight="1">
       <c r="A95" s="33"/>
       <c r="B95" s="33"/>
       <c r="C95" s="33"/>
@@ -42744,7 +42749,7 @@
       <c r="F95" s="33"/>
       <c r="G95" s="33"/>
     </row>
-    <row r="96" spans="1:7" ht="14.45" customHeight="1">
+    <row r="96" spans="1:7" ht="14.5" customHeight="1">
       <c r="A96" s="33"/>
       <c r="B96" s="33"/>
       <c r="C96" s="33"/>
@@ -42753,7 +42758,7 @@
       <c r="F96" s="33"/>
       <c r="G96" s="33"/>
     </row>
-    <row r="97" spans="1:7" ht="14.45" customHeight="1">
+    <row r="97" spans="1:7" ht="14.5" customHeight="1">
       <c r="A97" s="33"/>
       <c r="B97" s="33"/>
       <c r="C97" s="33"/>
@@ -42762,7 +42767,7 @@
       <c r="F97" s="33"/>
       <c r="G97" s="33"/>
     </row>
-    <row r="98" spans="1:7" ht="14.45" customHeight="1">
+    <row r="98" spans="1:7" ht="14.5" customHeight="1">
       <c r="A98" s="33"/>
       <c r="B98" s="33"/>
       <c r="C98" s="33"/>
@@ -42771,10 +42776,10 @@
       <c r="F98" s="33"/>
       <c r="G98" s="33"/>
     </row>
-    <row r="99" spans="1:7" ht="14.45" customHeight="1"/>
-    <row r="100" spans="1:7" ht="14.45" customHeight="1"/>
-    <row r="101" spans="1:7" ht="14.45" customHeight="1"/>
-    <row r="102" spans="1:7" ht="14.45" customHeight="1"/>
+    <row r="99" spans="1:7" ht="14.5" customHeight="1"/>
+    <row r="100" spans="1:7" ht="14.5" customHeight="1"/>
+    <row r="101" spans="1:7" ht="14.5" customHeight="1"/>
+    <row r="102" spans="1:7" ht="14.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
@@ -42813,17 +42818,17 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="28.7" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="28.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" customWidth="1"/>
-    <col min="2" max="2" width="35.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="35.453125" customWidth="1"/>
+    <col min="2" max="2" width="35.1796875" customWidth="1"/>
+    <col min="3" max="3" width="19.1796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.81640625" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.7" customHeight="1">
+    <row r="1" spans="1:6" ht="28.75" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>251</v>
       </c>
@@ -42843,7 +42848,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.7" customHeight="1">
+    <row r="2" spans="1:6" ht="28.75" customHeight="1">
       <c r="A2" s="14" t="s">
         <v>216</v>
       </c>
@@ -42863,7 +42868,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.7" customHeight="1">
+    <row r="3" spans="1:6" ht="28.75" customHeight="1">
       <c r="A3" s="14" t="s">
         <v>220</v>
       </c>
@@ -42883,7 +42888,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.7" customHeight="1">
+    <row r="4" spans="1:6" ht="28.75" customHeight="1">
       <c r="A4" s="14" t="s">
         <v>200</v>
       </c>
@@ -42903,7 +42908,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.7" customHeight="1">
+    <row r="5" spans="1:6" ht="28.75" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>193</v>
       </c>
@@ -42921,7 +42926,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.7" customHeight="1">
+    <row r="6" spans="1:6" ht="28.75" customHeight="1">
       <c r="A6" s="14" t="s">
         <v>213</v>
       </c>
@@ -42934,7 +42939,7 @@
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:6" ht="28.7" customHeight="1">
+    <row r="7" spans="1:6" ht="28.75" customHeight="1">
       <c r="A7" s="14" t="s">
         <v>225</v>
       </c>
@@ -42943,7 +42948,7 @@
       </c>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:6" ht="28.7" customHeight="1">
+    <row r="8" spans="1:6" ht="28.75" customHeight="1">
       <c r="A8" s="14" t="s">
         <v>199</v>
       </c>
@@ -42951,7 +42956,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.7" customHeight="1">
+    <row r="9" spans="1:6" ht="28.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>204</v>
       </c>
@@ -42959,7 +42964,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="28.7" customHeight="1">
+    <row r="10" spans="1:6" ht="28.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>218</v>
       </c>
@@ -42967,7 +42972,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.7" customHeight="1">
+    <row r="11" spans="1:6" ht="28.75" customHeight="1">
       <c r="A11" s="14" t="s">
         <v>223</v>
       </c>
@@ -42975,153 +42980,153 @@
         <v>265</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.7" customHeight="1">
+    <row r="12" spans="1:6" ht="28.75" customHeight="1">
       <c r="A12" s="15"/>
       <c r="B12" s="26" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="28.7" customHeight="1">
+    <row r="13" spans="1:6" ht="28.75" customHeight="1">
       <c r="B13" s="26" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.7" customHeight="1">
+    <row r="14" spans="1:6" ht="28.75" customHeight="1">
       <c r="B14" s="26" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28.7" customHeight="1">
+    <row r="15" spans="1:6" ht="28.75" customHeight="1">
       <c r="B15" s="26" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="28.7" customHeight="1">
+    <row r="16" spans="1:6" ht="28.75" customHeight="1">
       <c r="B16" s="26" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="28.7" customHeight="1">
+    <row r="17" spans="2:2" ht="28.75" customHeight="1">
       <c r="B17" s="26" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="28.7" customHeight="1">
+    <row r="18" spans="2:2" ht="28.75" customHeight="1">
       <c r="B18" s="26" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="28.7" customHeight="1">
+    <row r="19" spans="2:2" ht="28.75" customHeight="1">
       <c r="B19" s="26" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="28.7" customHeight="1">
+    <row r="20" spans="2:2" ht="28.75" customHeight="1">
       <c r="B20" s="26" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="28.7" customHeight="1">
+    <row r="21" spans="2:2" ht="28.75" customHeight="1">
       <c r="B21" s="26" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="28.7" customHeight="1">
+    <row r="22" spans="2:2" ht="28.75" customHeight="1">
       <c r="B22" s="26" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="28.7" customHeight="1">
+    <row r="23" spans="2:2" ht="28.75" customHeight="1">
       <c r="B23" s="26" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="28.7" customHeight="1">
+    <row r="24" spans="2:2" ht="28.75" customHeight="1">
       <c r="B24" s="26" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="28.7" customHeight="1">
+    <row r="25" spans="2:2" ht="28.75" customHeight="1">
       <c r="B25" s="26" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="28.7" customHeight="1">
+    <row r="26" spans="2:2" ht="28.75" customHeight="1">
       <c r="B26" s="26" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="28.7" customHeight="1">
+    <row r="27" spans="2:2" ht="28.75" customHeight="1">
       <c r="B27" s="26" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="28.7" customHeight="1">
+    <row r="28" spans="2:2" ht="28.75" customHeight="1">
       <c r="B28" s="26" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="29" spans="2:2" ht="28.7" customHeight="1">
+    <row r="29" spans="2:2" ht="28.75" customHeight="1">
       <c r="B29" s="26" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="30" spans="2:2" ht="28.7" customHeight="1">
+    <row r="30" spans="2:2" ht="28.75" customHeight="1">
       <c r="B30" s="26" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="31" spans="2:2" ht="28.7" customHeight="1">
+    <row r="31" spans="2:2" ht="28.75" customHeight="1">
       <c r="B31" s="26" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="32" spans="2:2" ht="28.7" customHeight="1">
+    <row r="32" spans="2:2" ht="28.75" customHeight="1">
       <c r="B32" s="26" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="33" spans="2:2" ht="28.7" customHeight="1">
+    <row r="33" spans="2:2" ht="28.75" customHeight="1">
       <c r="B33" s="26" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="28.7" customHeight="1">
+    <row r="34" spans="2:2" ht="28.75" customHeight="1">
       <c r="B34" s="26" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="35" spans="2:2" ht="28.7" customHeight="1">
+    <row r="35" spans="2:2" ht="28.75" customHeight="1">
       <c r="B35" s="26" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="36" spans="2:2" ht="28.7" customHeight="1">
+    <row r="36" spans="2:2" ht="28.75" customHeight="1">
       <c r="B36" s="26" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="28.7" customHeight="1">
+    <row r="37" spans="2:2" ht="28.75" customHeight="1">
       <c r="B37" s="26" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="38" spans="2:2" ht="28.7" customHeight="1">
+    <row r="38" spans="2:2" ht="28.75" customHeight="1">
       <c r="B38" s="26" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="28.7" customHeight="1">
+    <row r="39" spans="2:2" ht="28.75" customHeight="1">
       <c r="B39" s="26" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="28.7" customHeight="1">
+    <row r="40" spans="2:2" ht="28.75" customHeight="1">
       <c r="B40" s="26" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="41" spans="2:2" ht="28.7" customHeight="1">
+    <row r="41" spans="2:2" ht="28.75" customHeight="1">
       <c r="B41" s="9"/>
     </row>
   </sheetData>
@@ -43138,14 +43143,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="64" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1796875" style="64" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="64" customWidth="1"/>
-    <col min="3" max="4" width="20.140625" style="33" customWidth="1"/>
+    <col min="3" max="4" width="20.1796875" style="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="45">
+    <row r="1" spans="1:4" ht="28">
       <c r="A1" s="56" t="s">
         <v>566</v>
       </c>
@@ -43630,25 +43635,25 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" customWidth="1"/>
+    <col min="5" max="5" width="25.1796875" customWidth="1"/>
+    <col min="6" max="6" width="23.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="40" customFormat="1" ht="134.25" customHeight="1">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="112" t="s">
         <v>903</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="113"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="114"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="27" t="s">
@@ -43699,27 +43704,27 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="3" width="26.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
-    <col min="5" max="5" width="49.42578125" customWidth="1"/>
-    <col min="6" max="7" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" customWidth="1"/>
+    <col min="2" max="3" width="26.453125" customWidth="1"/>
+    <col min="4" max="4" width="19.81640625" customWidth="1"/>
+    <col min="5" max="5" width="49.453125" customWidth="1"/>
+    <col min="6" max="7" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="40" customFormat="1" ht="111.95" customHeight="1">
-      <c r="A1" s="111" t="s">
+    <row r="1" spans="1:8" s="40" customFormat="1" ht="112" customHeight="1">
+      <c r="A1" s="112" t="s">
         <v>904</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
     </row>
     <row r="2" spans="1:8" s="40" customFormat="1">
       <c r="A2" s="6" t="s">
@@ -44739,7 +44744,7 @@
       <c r="G100" s="32"/>
       <c r="H100" s="32"/>
     </row>
-    <row r="101" spans="1:8" ht="101.45" customHeight="1">
+    <row r="101" spans="1:8" ht="101.5" customHeight="1">
       <c r="A101" s="32"/>
       <c r="B101" s="77"/>
       <c r="C101" s="32"/>
@@ -44929,7 +44934,7 @@
       <c r="G119" s="32"/>
       <c r="H119" s="32"/>
     </row>
-    <row r="120" spans="1:8" ht="101.45" customHeight="1">
+    <row r="120" spans="1:8" ht="101.5" customHeight="1">
       <c r="A120" s="32"/>
       <c r="B120" s="77"/>
       <c r="C120" s="32"/>
@@ -45239,7 +45244,7 @@
       <c r="G150" s="32"/>
       <c r="H150" s="32"/>
     </row>
-    <row r="151" spans="1:8" ht="101.45" customHeight="1">
+    <row r="151" spans="1:8" ht="101.5" customHeight="1">
       <c r="A151" s="32"/>
       <c r="B151" s="77"/>
       <c r="C151" s="32"/>
@@ -45953,7 +45958,7 @@
       <c r="G222" s="33"/>
       <c r="H222" s="33"/>
     </row>
-    <row r="223" spans="1:8" ht="101.45" customHeight="1">
+    <row r="223" spans="1:8" ht="101.5" customHeight="1">
       <c r="A223" s="32"/>
       <c r="B223" s="32"/>
       <c r="C223" s="32"/>
@@ -46041,33 +46046,33 @@
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="4"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="4"/>
+    <col min="2" max="2" width="19.1796875" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" customWidth="1"/>
+    <col min="4" max="4" width="20.453125" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" customWidth="1"/>
+    <col min="6" max="6" width="21.81640625" customWidth="1"/>
+    <col min="7" max="7" width="21.453125" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="50.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="50.453125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="174" customHeight="1">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="115" t="s">
         <v>621</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="117" t="s">
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="118" t="s">
         <v>905</v>
       </c>
-      <c r="H1" s="118"/>
-      <c r="I1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="120"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="37" t="s">
@@ -46098,7 +46103,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="28.7" customHeight="1">
+    <row r="3" spans="1:9" ht="28.75" customHeight="1">
       <c r="A3" s="39" t="s">
         <v>605</v>
       </c>
@@ -46151,7 +46156,7 @@
       <c r="H5" s="33"/>
       <c r="I5" s="38"/>
     </row>
-    <row r="6" spans="1:9" ht="28.7" customHeight="1">
+    <row r="6" spans="1:9" ht="28.75" customHeight="1">
       <c r="A6" s="53" t="s">
         <v>5</v>
       </c>
@@ -46176,7 +46181,7 @@
       </c>
       <c r="I6" s="53"/>
     </row>
-    <row r="7" spans="1:9" ht="28.7" customHeight="1">
+    <row r="7" spans="1:9" ht="28.75" customHeight="1">
       <c r="A7" s="53" t="s">
         <v>5</v>
       </c>
@@ -46220,7 +46225,7 @@
       <c r="H8" s="53"/>
       <c r="I8" s="53"/>
     </row>
-    <row r="9" spans="1:9" ht="28.7" customHeight="1">
+    <row r="9" spans="1:9" ht="28.75" customHeight="1">
       <c r="A9" s="53" t="s">
         <v>5</v>
       </c>
@@ -46439,37 +46444,37 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" customWidth="1"/>
+    <col min="2" max="3" width="16.453125" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" customWidth="1"/>
+    <col min="6" max="6" width="21.453125" customWidth="1"/>
+    <col min="7" max="8" width="14.453125" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" customWidth="1"/>
-    <col min="11" max="11" width="26.42578125" customWidth="1"/>
+    <col min="10" max="10" width="22.453125" customWidth="1"/>
+    <col min="11" max="11" width="26.453125" customWidth="1"/>
     <col min="12" max="12" width="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="210" customHeight="1">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="115" t="s">
         <v>906</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="114" t="s">
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="115" t="s">
         <v>907</v>
       </c>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="117"/>
     </row>
     <row r="2" spans="1:12" s="40" customFormat="1" ht="45" customHeight="1">
       <c r="A2" s="7" t="s">
@@ -46563,7 +46568,7 @@
       <c r="K4" s="33"/>
       <c r="L4" s="29"/>
     </row>
-    <row r="5" spans="1:12" ht="28.7" customHeight="1">
+    <row r="5" spans="1:12" ht="28.75" customHeight="1">
       <c r="A5" s="53" t="s">
         <v>5</v>
       </c>
@@ -46709,34 +46714,34 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" customWidth="1"/>
+    <col min="1" max="1" width="8.453125" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="45.140625" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="19" width="8.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" customWidth="1"/>
+    <col min="6" max="6" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="45.1796875" customWidth="1"/>
+    <col min="9" max="9" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="19" width="8.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="222" customHeight="1">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="112" t="s">
         <v>733</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="120" t="s">
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="121" t="s">
         <v>946</v>
       </c>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="27" t="s">
@@ -46780,7 +46785,7 @@
       <c r="H3" s="32"/>
       <c r="I3" s="33"/>
     </row>
-    <row r="4" spans="1:9" ht="30">
+    <row r="4" spans="1:9" ht="29">
       <c r="A4" s="32" t="s">
         <v>315</v>
       </c>
@@ -46803,7 +46808,7 @@
       <c r="H4" s="33"/>
       <c r="I4" s="33"/>
     </row>
-    <row r="5" spans="1:9" ht="30">
+    <row r="5" spans="1:9" ht="29">
       <c r="A5" s="32" t="s">
         <v>5</v>
       </c>
